--- a/REGULAR/OJT/ANGAT, MAXIMIANO.xlsx
+++ b/REGULAR/OJT/ANGAT, MAXIMIANO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1278EA-7AE9-4B06-8391-BE56C2F3252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EEF0B-3D21-48CC-9694-443190899DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
   <si>
     <t>PERIOD</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1266,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1612,9 +1615,10 @@
   </sheetPr>
   <dimension ref="A2:K421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A381" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E385"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3888" topLeftCell="A86"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,7 +1777,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>224.90700000000001</v>
+        <v>229.15700000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1783,7 +1787,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>297.25</v>
+        <v>303.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3802,11 +3806,15 @@
         <f>EDATE(A98,1)</f>
         <v>37591</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>2</v>
+      </c>
       <c r="E100" s="34"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
@@ -9480,7 +9488,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13">
@@ -9500,7 +9508,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -9520,7 +9528,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13">
@@ -9540,7 +9548,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13">
@@ -9560,16 +9568,18 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H370" s="39"/>
       <c r="I370" s="9"/>
@@ -9578,16 +9588,18 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
@@ -9596,16 +9608,18 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D372" s="39"/>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
@@ -9614,16 +9628,18 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
+      <c r="C373" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G373" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
@@ -9632,16 +9648,18 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
+      <c r="C374" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D374" s="39"/>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G374" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
@@ -9650,7 +9668,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9668,7 +9686,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9686,7 +9704,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9704,7 +9722,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9722,7 +9740,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9740,7 +9758,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9758,7 +9776,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9776,7 +9794,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9794,7 +9812,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9812,7 +9830,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9830,7 +9848,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9848,7 +9866,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9866,7 +9884,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9884,7 +9902,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9902,7 +9920,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9920,7 +9938,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9938,7 +9956,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9956,7 +9974,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9974,7 +9992,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9992,7 +10010,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10010,7 +10028,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10028,7 +10046,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10046,7 +10064,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10064,7 +10082,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10082,7 +10100,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10100,7 +10118,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
